--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_97_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_97_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.832008007323558, 5.491746812069802]</t>
+          <t>[4.831091779698934, 5.492663039694426]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,37 +603,37 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.38994743648161645, -0.2641579408423844]</t>
+          <t>[-0.4025263860455386, -0.2515789912784623]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.196820420545919e-13</v>
+        <v>3.08300052154209e-11</v>
       </c>
       <c r="R2" t="n">
-        <v>1.196820420545919e-13</v>
+        <v>3.08300052154209e-11</v>
       </c>
       <c r="S2" t="n">
         <v>0.4366856291660435</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.2495981370935434, 0.6237731212385436]</t>
+          <t>[0.24950854470381678, 0.6238627136282702]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.470489640349349e-05</v>
+        <v>2.488789566013061e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>2.470489640349349e-05</v>
+        <v>2.488789566013061e-05</v>
       </c>
       <c r="W2" t="n">
         <v>1.232592592592621</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9955555555555758</v>
+        <v>0.9481481481481708</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.469629629629666</v>
+        <v>1.51703703703707</v>
       </c>
     </row>
   </sheetData>
